--- a/ukraine_shells.xlsx
+++ b/ukraine_shells.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rolandmartial/Github/UkraineShells_2/UkraineShells_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677344CC-4A07-5144-B065-5477CAEF3D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DE036E-FEB9-354F-B5BB-A5A7F618849D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -627,12 +627,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -641,7 +638,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1069,7 +1068,7 @@
   <dimension ref="B1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1085,13 +1084,13 @@
   <sheetData>
     <row r="1" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:8" ht="29" x14ac:dyDescent="0.2">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="2:8" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:8" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1118,7 +1117,7 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
@@ -1127,17 +1126,17 @@
       <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>100000</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>150000</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <f>200000</f>
         <v>200000</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
@@ -1149,17 +1148,17 @@
       <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>10000</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <f>35000/3</f>
         <v>11666.666666666666</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>80000</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
@@ -1171,17 +1170,17 @@
       <c r="D7" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>60000</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <f>E7+0.5*E7</f>
         <v>90000</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>120000</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>150000</v>
       </c>
     </row>
@@ -1195,16 +1194,16 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>40000</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>400000</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>600000</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
@@ -1216,19 +1215,19 @@
       <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <f>14400*12</f>
         <v>172800</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <f>28000*12</f>
         <v>336000</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <f>85000*12</f>
         <v>1020000</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <f>100000*12</f>
         <v>1200000</v>
       </c>
@@ -1243,25 +1242,20 @@
       <c r="D10" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F11" s="7">
-        <f>SUM(F5:F10)</f>
-        <v>987666.66666666663</v>
-      </c>
-      <c r="G11" s="4">
-        <f>G5+G6+G7+G8+G9</f>
-        <v>2020000</v>
-      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>